--- a/archivo_salida_error.xlsx
+++ b/archivo_salida_error.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>STATUS</t>
   </si>
@@ -21,6 +21,108 @@
   </si>
   <si>
     <t>LINK</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>http://www.tecnonews.info/www/</t>
+  </si>
+  <si>
+    <t>http://www.responsabilidadimas.org/newsletter2/eventos</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tecnonewsinfo</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/www.tecnonews.info</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>http://tertuliadigital.com/colombia/</t>
+  </si>
+  <si>
+    <t>https://crespo-servicios-informaticos.blogspot.com.es/2016/09/eset-security-days-zaragoza.html</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>http://ametic.es/es</t>
+  </si>
+  <si>
+    <t>https://ametic.sharepoint.com/</t>
+  </si>
+  <si>
+    <t>https://ametic.sharepoint.com/AMETIC_FTI</t>
+  </si>
+  <si>
+    <t>http://www.tecnonews.info/RSS/tecnonews.rss</t>
+  </si>
+  <si>
+    <t>http://www.tecnonews.info/files/3-8225-fotoArticulo/Ambar</t>
+  </si>
+  <si>
+    <t>http://www.tecnonews.info/files/3-8242-fotoArticulo/Captura</t>
+  </si>
+  <si>
+    <t>http://www.tecnonews.info/files/3-8262-fotoArticulo/refugiados</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>https://twitter.com/tecnonewsinfo</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/</t>
+  </si>
+  <si>
+    <t>http://www.tbs-education.es/es/20-years/adaptarse-la-innovacion-profesionales-y-smart-cities?utm_source=technonews&amp;utm_medium=banner&amp;utm_content=20_years&amp;utm_campaign=technonews_20years_banner_360x80</t>
+  </si>
+  <si>
+    <t>http://fonts.googleapis.com/css?family=Loved%2Bby%2Bthe%2BKing</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>http://qatest.org/es/registration/registration.php</t>
+  </si>
+  <si>
+    <t>http://www.qatest.org/es/blog/index.php/feed/</t>
+  </si>
+  <si>
+    <t>http://itscool.tecnonews.info/</t>
+  </si>
+  <si>
+    <t>http://itscool.tecnonews.info/?q=ca%2FConsulta%20el%20programa%20de%20la%20II%20Jornada%20Itscool</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/Itscool/582812971830683?ref=profile</t>
+  </si>
+  <si>
+    <t>http://itscool.tecnonews.info/ii-jornada-generacions-de-futur-les-tic-eines-pels-mestres</t>
+  </si>
+  <si>
+    <t>http://itscool.tecnonews.info/?q=ca%2Fsites%2Fdefault%2Ffiles%2Fstyles%2Fbanner__150x100_%2Fpublic%2FlogoCoetic_0.png&amp;itok=jYlVPduU</t>
+  </si>
+  <si>
+    <t>http://www.tecnonews.info/noticias/la_consultora_ipsom_crea_un_simulador_que_permite_optimizar_el_consumo</t>
+  </si>
+  <si>
+    <t>https://www.ipsom.com/tarifa-luz-hora/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/search/str/Empresa%2Bde%2Btelecomunicaciones/keywords_pages/?ref=page_about_category</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>http://www.acpjt.cat/</t>
   </si>
 </sst>
 </file>
@@ -65,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -82,6 +184,215 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/archivo_salida_error.xlsx
+++ b/archivo_salida_error.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="144">
   <si>
     <t>STATUS</t>
   </si>
@@ -26,22 +26,424 @@
     <t>404</t>
   </si>
   <si>
-    <t>https://www.epickg.com/</t>
-  </si>
-  <si>
-    <t>https://www.epickg.com/safari-pinned-tab.svg</t>
-  </si>
-  <si>
-    <t>https://www.epickg.com/streamers/vizicsacsi/home</t>
-  </si>
-  <si>
-    <t>https://www.epickg.com/streamers/vizicsacsi/Vizicsacsi</t>
-  </si>
-  <si>
-    <t>https://www.epickg.com/profile/7q0bqaxy56</t>
-  </si>
-  <si>
-    <t>https://www.epickg.com/assets/images/lol/items/?v4.2.5</t>
+    <t>http://www.userzoom.es/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/xmlrpc.php?rsd</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/marketing-manager/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/mobile-voice-of-the-customer</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/remote-usability-testing/10-checklists-buying-remote-user-testing-software/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/request-demo/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/software/card-sorting/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/card-sorting</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/software/tree-testing/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/ux-best-practices</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/software/remote-usability-testing/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/remote-usability-testing</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/software/voice-of-the-customer/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/voice-of-the-customer</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/usability-testing-tools/usability-study-comparing-online-supermarkets/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/usability-testing-tools/usability-study-comparing-online-supermarkets/blog/http:/www.userzoom.es/blog/usability-testing-tools/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/software/mobile-recorder/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/mobile-usability-testing</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/company/donde-estamos/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.de/contact</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/industry-studies</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/cx-manager/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/video-questions</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/case-studies</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/ux-professionals/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/roi-of-ux</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/company/trabaja-con-nosotros/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/company/about</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/wp-content/themes/userzoomcom/all.css</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/wp-content/uploads/2014/07/search.png</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/wp-content/uploads/2014/07/icon_txt.png</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/wp-content/uploads/2014/07/seminars.png</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/wp-content/uploads/2014/07/webinar.png</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/wp-content/uploads/2014/07/icon_video.png</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/recursos/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/recursos/measuring-user-experience/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/measuring-user-experience</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/voice-of-the-customer/building-voice-customer-programme-company-online-channel/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/resources/voice-of-the-customer</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/wp-content/uploads/2014/07/article.png</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/recursos/resources/measuring-user-experience</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/wp-content/uploads/2014/10/icon-spotlight-products.png</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/industry-studies/banking-user-experience-benchmark-study-mobile-websites/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/resources/mobile-usability-testing</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/wp-content/uploads/2014/07/infografia.png</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/recursos/roi-of-ux/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/software/online-survey-tools/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/software/online-survey-tools/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/wp-content/uploads/2014/07/case-study.png</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/resources/industry-studies</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/resources/roi-of-ux</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/wp-content/uploads/2014/10/icon-success-stories.png</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/wp-content/uploads/2014/08/video-camera.png</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/recursos/ux-best-practices/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/wp-content/uploads/2014/07/ux-guide.png</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/wp-content/uploads/2014/07/ebook.png</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/wp-content/uploads/2014/07/opened_content.png</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/remote-usability-testing/guide-choosing-right-ux-software-company/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/recursos/resources/mobile-usability-testing</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/wp-content/uploads/2014/07/whitepaper.png</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/measuring-user-experience/12-questions-answered-ux-benchmark-studies/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/resources/measuring-user-experience</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/remote-usability-testing</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.co.uk/wp-content/uploads/2014/07/closed-content.png</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/recursos/industry-studies/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/recursos/resources/voice-of-the-customer</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/industry-studies/tree-testing-comparing-online-supermarkets/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/resources/card-sorting</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/resources/ux-best-practices</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/successstory/lenovo/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/customer-success-stories-and-testimonials/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/casestudy/graba-en-video-todas-las-sesiones-de-usuario/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/resources/case-studies</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/card-sorting/online-card-sorting/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/voice-of-the-customer/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/measuring-user-experience/measuring-usability-user-experience-3/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/request-demo</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/customer/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/case-studies/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/resources/remote-usability-testing</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/mobile-usability-testing/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/user-testing-on-websites-and-mobile-apps/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/ux-best-practices/</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>https://accounts.google.com/SignUp?service=oz&amp;continue=https%3A%2F%2Fplus.google.com%2Fup%2F%3Fcontinue%3Dhttps%3A%2F%2Fplus.google.com%2Fshare%3Furl%253Dhttp%3A%2F%2Fwww.userzoom.es%2Fresources%2Fremote-usability-testing%2F10-checklists-buying-remote-user-testing-software%2F%26gpsrc%3Dgplp0</t>
+  </si>
+  <si>
+    <t>https://fonts.googleapis.com/css?family=Open%2BSans%3A300%2C400&amp;lang=en</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/remote-usability-testing/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/card-sorting/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/measuring-user-experience/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/industry-studies/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/roi-of-ux/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/pressrelease/userzoom-cierra-una-ronda-de-financiacion-de-30-millones-de-euros-liderada-por-tc-growth-partners/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/pressrelease/userzoom-cierra-una-ronda-de-financiacion-de-30-millones-de-euros-liderada-por-tc-growth-partners/www.tridentcap.com</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/tree-testing</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/ux-and-conversion-rate-optimisation/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/uncategorized</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/ux-and-conversion-rate-optimisation/user-experience-building-an-ux-brand/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/uncategorized</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/usability-testing-tools/requirments-remote-testing-tool/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/blog/usability-testing-tools</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/usability-testing-tools/requirments-remote-testing-tool/blog/http:/www.userzoom.es/blog/usability-testing-tools/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/user-testing-on-websites-and-mobile-apps</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/usability-testing-tools/real-value-behind-remote-usability-testing-tools/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/usability-testing-tools/real-value-behind-remote-usability-testing-tools/blog/http:/www.userzoom.es/blog/usability-testing-tools/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/ux-and-conversion-rate-optimisation/user-experience-building-an-ux-brand/blog/http:/www.userzoom.es/blog/ux-and-conversion-rate-optimisation/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/online-research-vs-lab-testing/online-user-testing-vs-lab-usability-testing/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/online-research-vs-lab-testing/online-user-testing-vs-lab-usability-testing/blog/http:/www.userzoom.es/blog/online-research-vs-lab-testing/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/customer-experience-management/online-questionnaires-understanding-user-behaviour/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/customer-experience-management/online-questionnaires-understanding-user-behaviour/blog/http:/www.userzoom.es/blog/customer-experience-management/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/mobile-usability-testing</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/usability-testing-tools/10-questions-ask-buying-user-testing-software/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/remote-usability-testing/guide-buying-remote-user-testing-software-2/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/uncategorized/top-5-user-experience-tips-generate-online-success/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/uncategorized/top-5-user-experience-tips-generate-online-success/blog/http:/www.userzoom.es/uncategorized/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/blog/user-experience-research</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/usability-testing-tools/10-questions-ask-buying-user-testing-software/blog/http:/www.userzoom.es/blog/usability-testing-tools/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/blog/ux-and-conversion-rate-optimisation</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/user-experience-research/x-reasons-conducting-online-user-testing/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/user-experience-research/x-reasons-conducting-online-user-testing/blog/http:/www.userzoom.es/blog/user-experience-research/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/online-research-vs-lab-testing/ux-online-research-surpassing-ux-lab-testing/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/blog/online-research-vs-lab-testing</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/design-tools-and-prototyping/remote-prototype-testing-10-tips/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/blog/design-tools-and-prototyping</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/customer-experience-management/5-reasons-voice-of-the-customer-studiesare-essential-website-app/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/customer-experience-management/5-reasons-voice-of-the-customer-studiesare-essential-website-app/blog/http:/www.userzoom.es/blog/customer-experience-management/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/online-research-vs-lab-testing/ux-online-research-surpassing-ux-lab-testing/blog/http:/www.userzoom.es/blog/online-research-vs-lab-testing/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/card-sorting</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/design-tools-and-prototyping/remote-prototype-testing-10-tips/blog/http:/www.userzoom.es/blog/design-tools-and-prototyping/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/user-experience-research/17-questions-answered-ux-testing-agile/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/user-experience-research/17-questions-answered-ux-testing-agile/blog/http:/www.userzoom.es/blog/user-experience-research/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/resources/blog/customer-experience-management</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/user-experience-research/10-user-experience-groups-join-linkedin/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/user-experience-research/10-user-experience-groups-join-linkedin/blog/http:/www.userzoom.es/blog/user-experience-research/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/customer-experience-management/relationship-user-experience-customer-experience-part-i/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/customer-experience-management/relationship-user-experience-customer-experience-part-i/blog/http:/www.userzoom.es/blog/customer-experience-management/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/usability-testing-tools/faq-user-testing-software/</t>
+  </si>
+  <si>
+    <t>http://www.userzoom.es/blog/usability-testing-tools/faq-user-testing-software/blog/http:/www.userzoom.es/blog/usability-testing-tools/</t>
   </si>
 </sst>
 </file>
@@ -86,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -136,6 +538,1007 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
